--- a/bin/template/report-tpl/riv.xlsx
+++ b/bin/template/report-tpl/riv.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,13 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,345 +469,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -882,251 +552,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,139 +575,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1570,831 +951,831 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="5.55833333333333" customWidth="1"/>
-    <col min="6" max="7" width="3.44166666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.33333333333333" customWidth="1"/>
-    <col min="9" max="9" width="6.33333333333333" customWidth="1"/>
-    <col min="10" max="10" width="5.88333333333333" customWidth="1"/>
-    <col min="11" max="11" width="5.33333333333333" customWidth="1"/>
-    <col min="12" max="12" width="7.21666666666667" customWidth="1"/>
-    <col min="13" max="13" width="6.55833333333333" customWidth="1"/>
-    <col min="14" max="14" width="5.33333333333333" customWidth="1"/>
-    <col min="15" max="15" width="8.66666666666667" customWidth="1"/>
-    <col min="16" max="17" width="7.55833333333333" customWidth="1"/>
-    <col min="18" max="18" width="9.775" customWidth="1"/>
-    <col min="19" max="19" width="7.55833333333333" customWidth="1"/>
-    <col min="20" max="21" width="9.21666666666667" customWidth="1"/>
-    <col min="22" max="22" width="7.21666666666667" customWidth="1"/>
-    <col min="23" max="24" width="5.55833333333333" customWidth="1"/>
-    <col min="25" max="25" width="7.44166666666667" customWidth="1"/>
-    <col min="26" max="26" width="8.775" customWidth="1"/>
-    <col min="27" max="27" width="6.55833333333333" customWidth="1"/>
-    <col min="28" max="28" width="8.55833333333333" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="7" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="17" width="7.5546875" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" customWidth="1"/>
+    <col min="20" max="21" width="9.21875" customWidth="1"/>
+    <col min="22" max="22" width="7.21875" customWidth="1"/>
+    <col min="23" max="24" width="5.5546875" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" customWidth="1"/>
+    <col min="26" max="26" width="8.77734375" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" customWidth="1"/>
+    <col min="28" max="28" width="8.5546875" customWidth="1"/>
     <col min="29" max="29" width="8" customWidth="1"/>
-    <col min="30" max="30" width="7.21666666666667" customWidth="1"/>
+    <col min="30" max="30" width="7.21875" customWidth="1"/>
     <col min="31" max="31" width="6" customWidth="1"/>
-    <col min="34" max="34" width="36.125" customWidth="1"/>
-    <col min="35" max="35" width="22.5" customWidth="1"/>
-    <col min="36" max="36" width="8.88333333333333" style="5"/>
+    <col min="34" max="34" width="36.109375" customWidth="1"/>
+    <col min="35" max="35" width="22.44140625" customWidth="1"/>
+    <col min="36" max="36" width="32.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:36">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="15.6">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AJ1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AJ1" s="18"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="42.75" customHeight="1" spans="1:36">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:36" s="2" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="24" customHeight="1" spans="1:36">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:36" s="3" customFormat="1" ht="24" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AC3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AD3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AF3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="27" t="s">
+      <c r="AG3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AH3" s="28" t="s">
+      <c r="AH3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AI3" s="28" t="s">
+      <c r="AI3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" s="29" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="24" customHeight="1" spans="1:36">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="11" t="s">
+    <row r="4" spans="1:36" s="3" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AB4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AC4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AD4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AE4" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AF4" s="24" t="s">
+      <c r="AF4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AG4" s="30" t="s">
+      <c r="AG4" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AH4" s="28" t="s">
+      <c r="AH4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="AI4" s="28" t="s">
+      <c r="AI4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AJ4" s="29" t="s">
+      <c r="AJ4" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="24" customHeight="1" spans="1:36">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="11" t="s">
+    <row r="5" spans="1:36" s="3" customFormat="1" ht="24" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="Z5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AA5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AC5" s="12" t="s">
+      <c r="AC5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AD5" s="12" t="s">
+      <c r="AD5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AE5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AF5" s="24" t="s">
+      <c r="AF5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AG5" s="30" t="s">
+      <c r="AG5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AH5" s="28" t="s">
+      <c r="AH5" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AI5" s="28" t="s">
+      <c r="AI5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="AJ5" s="29" t="s">
+      <c r="AJ5" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:36">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:36" s="4" customFormat="1">
+      <c r="A6" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="12">
         <v>2020</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="23">
-        <v>2.2</v>
-      </c>
-      <c r="M6" s="22" t="s">
+      <c r="L6" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="23">
-        <v>0.0018</v>
-      </c>
-      <c r="R6" s="23" t="s">
+      <c r="Q6" s="16">
+        <v>1.8E-3</v>
+      </c>
+      <c r="R6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="23" t="s">
+      <c r="S6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="23">
-        <v>0.006</v>
-      </c>
-      <c r="U6" s="23" t="s">
+      <c r="T6" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="U6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V6" s="16">
         <v>0.04</v>
       </c>
-      <c r="W6" s="22" t="s">
+      <c r="W6" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="X6" s="23" t="s">
+      <c r="X6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="23" t="s">
+      <c r="Y6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z6" s="23" t="s">
+      <c r="Z6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AA6" s="23">
-        <v>0.396</v>
-      </c>
-      <c r="AB6" s="23" t="s">
+      <c r="AA6" s="16">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="AB6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AC6" s="23" t="s">
+      <c r="AC6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AD6" s="23">
-        <v>0.014</v>
-      </c>
-      <c r="AE6" s="23">
+      <c r="AD6" s="16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AE6" s="16">
         <v>330</v>
       </c>
-      <c r="AF6" s="24" t="s">
+      <c r="AF6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AG6" s="30" t="s">
+      <c r="AG6" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="AH6" s="28" t="s">
+      <c r="AH6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="AI6" s="28" t="s">
+      <c r="AI6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="AJ6" s="29" t="s">
+      <c r="AJ6" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:36">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11" t="s">
+    <row r="7" spans="1:36" s="4" customFormat="1" ht="24">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="12">
         <v>2020</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="16">
         <v>3.3</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="23">
-        <v>0.0034</v>
-      </c>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="R7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="23" t="s">
+      <c r="S7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="T7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="U7" s="23" t="s">
+      <c r="U7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7" s="16">
         <v>0.02</v>
       </c>
-      <c r="W7" s="22" t="s">
+      <c r="W7" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="16">
         <v>1.91</v>
       </c>
-      <c r="Y7" s="23" t="s">
+      <c r="Y7" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="Z7" s="23">
-        <v>0.0021</v>
-      </c>
-      <c r="AA7" s="23">
-        <v>0.281</v>
-      </c>
-      <c r="AB7" s="23" t="s">
+      <c r="Z7" s="16">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AB7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AC7" s="23" t="s">
+      <c r="AC7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" s="23">
-        <v>0.007</v>
-      </c>
-      <c r="AE7" s="23">
+      <c r="AD7" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AE7" s="16">
         <v>5400</v>
       </c>
-      <c r="AF7" s="24" t="s">
+      <c r="AF7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AG7" s="27" t="s">
+      <c r="AG7" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="AH7" s="28" t="s">
+      <c r="AH7" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="AI7" s="28" t="s">
+      <c r="AI7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AJ7" s="29" t="s">
+      <c r="AJ7" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="24" spans="1:36">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="11" t="s">
+    <row r="8" spans="1:36" s="4" customFormat="1" ht="24">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="12">
         <v>2020</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="12" t="s">
+      <c r="W8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="X8" s="12" t="s">
+      <c r="X8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Y8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="Z8" s="12" t="s">
+      <c r="Z8" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AA8" s="12" t="s">
+      <c r="AA8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" s="12" t="s">
+      <c r="AB8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AC8" s="12" t="s">
+      <c r="AC8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="12" t="s">
+      <c r="AD8" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AE8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AF8" s="24" t="s">
+      <c r="AF8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AG8" s="22" t="s">
+      <c r="AG8" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AH8" s="28" t="s">
+      <c r="AH8" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="AI8" s="28" t="s">
+      <c r="AI8" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AJ8" s="29" t="s">
+      <c r="AJ8" s="22" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2408,8 +1789,8 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C8"/>
   </mergeCells>
-  <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>